--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value946.xlsx
@@ -354,10 +354,10 @@
         <v>1.781358906125017</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.072089807144449</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value946.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.188775330606856</v>
+        <v>1.319720864295959</v>
       </c>
       <c r="B1">
-        <v>1.781358906125017</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.447258830070496</v>
       </c>
       <c r="E1">
-        <v>1.072089807144449</v>
+        <v>1.012638211250305</v>
       </c>
     </row>
   </sheetData>
